--- a/output/Progression predictors/variable-importance.xlsx
+++ b/output/Progression predictors/variable-importance.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -381,7 +381,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.08068496168780652</v>
+        <v>0.09262776649055081</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -390,92 +390,92 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>t_prim_tumor</t>
+          <t>age_diagn</t>
         </is>
       </c>
       <c r="B3">
-        <v>0.05179254967213153</v>
+        <v>0.06340651733979326</v>
       </c>
       <c r="C3">
-        <v>0.6419108169442022</v>
+        <v>0.6845303491827315</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>age_diagn</t>
+          <t>t_prim_tumor</t>
         </is>
       </c>
       <c r="B4">
-        <v>0.04097764370967573</v>
+        <v>0.05248816310720316</v>
       </c>
       <c r="C4">
-        <v>0.5078721344409891</v>
+        <v>0.5666569010120481</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>menop_stat1st_diagn</t>
+          <t>neuropathy_motor_max</t>
         </is>
       </c>
       <c r="B5">
-        <v>0.02260991261073933</v>
+        <v>0.03790393947674067</v>
       </c>
       <c r="C5">
-        <v>0.2802246185382554</v>
+        <v>0.4092070975349206</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>neuropathy_motor_max</t>
+          <t>scd8_f</t>
         </is>
       </c>
       <c r="B6">
-        <v>0.02134242232654452</v>
+        <v>0.03662332953124517</v>
       </c>
       <c r="C6">
-        <v>0.2645154918598652</v>
+        <v>0.3953817620657107</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>neuropathy_sensory_max</t>
+          <t>menop_stat1st_diagn</t>
         </is>
       </c>
       <c r="B7">
-        <v>0.01617422994605867</v>
+        <v>0.03294519493909927</v>
       </c>
       <c r="C7">
-        <v>0.2004615185744458</v>
+        <v>0.3556729929622139</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>total_cd8_f</t>
+          <t>tils3_class</t>
         </is>
       </c>
       <c r="B8">
-        <v>0.01552188448141427</v>
+        <v>0.01345096972545383</v>
       </c>
       <c r="C8">
-        <v>0.1923764250080819</v>
+        <v>0.1452153089195559</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ngs_result</t>
+          <t>neuropathy_sensory_max</t>
         </is>
       </c>
       <c r="B9">
-        <v>0.01344063219287644</v>
+        <v>0.007297650986943096</v>
       </c>
       <c r="C9">
-        <v>0.1665816270060602</v>
+        <v>0.07878470207621327</v>
       </c>
     </row>
     <row r="10">
@@ -485,231 +485,10 @@
         </is>
       </c>
       <c r="B10">
-        <v>0.01321609715542525</v>
+        <v>3.845644692110905E-05</v>
       </c>
       <c r="C10">
-        <v>0.1637987659529685</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>scd8_f</t>
-        </is>
-      </c>
-      <c r="B11">
-        <v>0.01188804679506123</v>
-      </c>
-      <c r="C11">
-        <v>0.1473390647573153</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>prev_other_canc</t>
-        </is>
-      </c>
-      <c r="B12">
-        <v>0.01098374175817524</v>
-      </c>
-      <c r="C12">
-        <v>0.1361312136538469</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>ps</t>
-        </is>
-      </c>
-      <c r="B13">
-        <v>0.01088288598857957</v>
-      </c>
-      <c r="C13">
-        <v>0.1348812190143761</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>tils3_class</t>
-        </is>
-      </c>
-      <c r="B14">
-        <v>0.01055904645263935</v>
-      </c>
-      <c r="C14">
-        <v>0.1308675895948908</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>bmi</t>
-        </is>
-      </c>
-      <c r="B15">
-        <v>0.0103306855359877</v>
-      </c>
-      <c r="C15">
-        <v>0.1280373110414319</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>neuropathy_sensory_min</t>
-        </is>
-      </c>
-      <c r="B16">
-        <v>0.009779484108766404</v>
-      </c>
-      <c r="C16">
-        <v>0.121205784872354</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>histo_grade</t>
-        </is>
-      </c>
-      <c r="B17">
-        <v>0.009577052065017456</v>
-      </c>
-      <c r="C17">
-        <v>0.1186968657440013</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>icd8_f</t>
-        </is>
-      </c>
-      <c r="B18">
-        <v>0.00710774460047195</v>
-      </c>
-      <c r="C18">
-        <v>0.08809255717284557</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>cardiac_max</t>
-        </is>
-      </c>
-      <c r="B19">
-        <v>0.005885180734680022</v>
-      </c>
-      <c r="C19">
-        <v>0.07294024328165997</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>location</t>
-        </is>
-      </c>
-      <c r="B20">
-        <v>0.005855900104665681</v>
-      </c>
-      <c r="C20">
-        <v>0.07257734257003003</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>breast_surg_present</t>
-        </is>
-      </c>
-      <c r="B21">
-        <v>0.005771389984253996</v>
-      </c>
-      <c r="C21">
-        <v>0.07152993399916549</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>cardiac_min</t>
-        </is>
-      </c>
-      <c r="B22">
-        <v>0.004854643614723189</v>
-      </c>
-      <c r="C22">
-        <v>0.060167886470681</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>ki67_percent</t>
-        </is>
-      </c>
-      <c r="B23">
-        <v>0.003983774189527001</v>
-      </c>
-      <c r="C23">
-        <v>0.04937443243688181</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>family_other_canc</t>
-        </is>
-      </c>
-      <c r="B24">
-        <v>0.00300815138078018</v>
-      </c>
-      <c r="C24">
-        <v>0.037282677191068</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>histology_class</t>
-        </is>
-      </c>
-      <c r="B25">
-        <v>0.002870904009750503</v>
-      </c>
-      <c r="C25">
-        <v>0.03558164928997379</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>neuropathy_motor_min</t>
-        </is>
-      </c>
-      <c r="B26">
-        <v>0.002493918406435047</v>
-      </c>
-      <c r="C26">
-        <v>0.03090933371307456</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>m_dist_metastasis</t>
-        </is>
-      </c>
-      <c r="B27">
-        <v>0.0008666206893727635</v>
-      </c>
-      <c r="C27">
-        <v>0.01074079569779025</v>
+        <v>0.0004151719120317134</v>
       </c>
     </row>
   </sheetData>
